--- a/outputs/house_republicans_committee_votes.xlsx
+++ b/outputs/house_republicans_committee_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -913,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.8</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="BA4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BL4">
         <v>1</v>
@@ -1007,6 +1007,9 @@
       <c r="BG5">
         <v>0.8</v>
       </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
       <c r="BJ5">
         <v>1</v>
       </c>
@@ -1037,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1049,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="AF6">
         <v>0.5</v>
       </c>
       <c r="AJ6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -1073,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="BA6">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BF6">
         <v>1</v>
@@ -1105,46 +1108,49 @@
         <v>1</v>
       </c>
       <c r="U7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="V7">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AL7">
+        <v>0.5</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AZ7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="V7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>0.9</v>
-      </c>
-      <c r="AL7">
-        <v>0.5</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="AZ7">
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
-      <c r="BK7">
-        <v>0.92307692307692313</v>
+      <c r="BN7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
@@ -1261,6 +1267,9 @@
       <c r="BJ9">
         <v>0.5</v>
       </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1415,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AG12">
         <v>1</v>
@@ -1427,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="AV12">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -1436,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="BG12">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BH12">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
@@ -1468,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AG13">
         <v>1</v>
@@ -1480,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="AV13">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -1489,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="BG13">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BH13">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
@@ -1630,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="AC16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AG16">
         <v>1</v>
@@ -1642,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="AV16">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AW16">
         <v>1</v>
@@ -1660,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="BH16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BL16">
         <v>1</v>
@@ -1804,6 +1813,9 @@
       <c r="BD18">
         <v>1</v>
       </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
       <c r="BH18">
         <v>0.8</v>
       </c>
@@ -1872,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1890,43 +1902,43 @@
         <v>1</v>
       </c>
       <c r="U20">
+        <v>0.75</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>0.75</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
-      </c>
-      <c r="AJ20">
-        <v>0.5</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="AQ20">
-        <v>1</v>
-      </c>
-      <c r="AZ20">
-        <v>1</v>
-      </c>
-      <c r="BA20">
-        <v>0.5714285714285714</v>
       </c>
       <c r="BL20">
         <v>1</v>
@@ -1937,19 +1949,19 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F21">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="G21">
-        <v>0.91666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -1973,13 +1985,13 @@
         <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AM21">
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.83333333333333337</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AU21">
         <v>1</v>
@@ -2008,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8571428571428571</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2100,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="AC23">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AG23">
         <v>1</v>
@@ -2112,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="AV23">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="AW23">
         <v>1</v>
@@ -2127,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="BG23">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="BH23">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BL23">
         <v>1</v>
@@ -2451,22 +2463,22 @@
         <v>1</v>
       </c>
       <c r="L29">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M29">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="W29">
         <v>0.75</v>
-      </c>
-      <c r="M29">
-        <v>0.75</v>
-      </c>
-      <c r="P29">
-        <v>0.6</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0.77777777777777779</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -2493,19 +2505,19 @@
         <v>1</v>
       </c>
       <c r="AR29">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AV29">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="AX29">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AY29">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="BG29">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="BH29">
         <v>1</v>
@@ -2578,10 +2590,10 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F31">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2593,7 +2605,7 @@
         <v>0.5</v>
       </c>
       <c r="T31">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -2608,13 +2620,13 @@
         <v>1</v>
       </c>
       <c r="AJ31">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AO31">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -2693,6 +2705,9 @@
       <c r="AQ32">
         <v>1</v>
       </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
       <c r="AT32">
         <v>1</v>
       </c>
@@ -2847,7 +2862,7 @@
         <v>34</v>
       </c>
       <c r="G35">
-        <v>0.9</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2918,10 +2933,10 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I36">
         <v>0.5</v>
@@ -2936,25 +2951,28 @@
         <v>0.5</v>
       </c>
       <c r="T36">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="U36">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Y36">
         <v>0.5</v>
       </c>
       <c r="AE36">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AJ36">
         <v>1</v>
       </c>
       <c r="AO36">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
       </c>
       <c r="BA36">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:66" x14ac:dyDescent="0.25">
@@ -3219,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="T41">
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>0.83333333333333337</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -3237,13 +3255,13 @@
         <v>1</v>
       </c>
       <c r="AE41">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AH41">
         <v>1</v>
       </c>
       <c r="AJ41">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -3261,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="BA41">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BD41">
         <v>1</v>
@@ -3447,7 +3465,10 @@
         <v>1</v>
       </c>
       <c r="AC44">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
       </c>
       <c r="AG44">
         <v>1</v>
@@ -3462,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="AV44">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AX44">
         <v>1</v>
@@ -3474,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="BH44">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.25">
@@ -3594,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>0.91666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="R47">
         <v>0.5</v>
@@ -3665,25 +3686,25 @@
         <v>0.5</v>
       </c>
       <c r="L48">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M48">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="O48">
+        <v>0.5</v>
+      </c>
+      <c r="P48">
+        <v>0.75</v>
+      </c>
+      <c r="Q48">
+        <v>0.5</v>
+      </c>
+      <c r="R48">
+        <v>0.5</v>
+      </c>
+      <c r="W48">
         <v>0.875</v>
-      </c>
-      <c r="M48">
-        <v>0.875</v>
-      </c>
-      <c r="O48">
-        <v>0.5</v>
-      </c>
-      <c r="P48">
-        <v>0.8</v>
-      </c>
-      <c r="Q48">
-        <v>0.5</v>
-      </c>
-      <c r="R48">
-        <v>0.5</v>
-      </c>
-      <c r="W48">
-        <v>0.88888888888888884</v>
       </c>
       <c r="Y48">
         <v>0.5</v>
@@ -3695,31 +3716,34 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="AC48">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="AG48">
         <v>0.75</v>
       </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
       <c r="AK48">
         <v>0.8571428571428571</v>
       </c>
       <c r="AR48">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AV48">
+        <v>1</v>
+      </c>
+      <c r="AX48">
+        <v>0.875</v>
+      </c>
+      <c r="AY48">
+        <v>0.8</v>
+      </c>
+      <c r="BG48">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="BH48">
         <v>0.75</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="AY48">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="BG48">
-        <v>0.875</v>
-      </c>
-      <c r="BH48">
-        <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.25">
@@ -3819,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AG50">
         <v>1</v>
@@ -3831,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="AV50">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="AX50">
         <v>1</v>
@@ -3840,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="BG50">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="BH50">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.25">
@@ -3872,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="AC51">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="AG51">
         <v>1</v>
@@ -3884,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="AV51">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="AX51">
         <v>1</v>
@@ -3893,10 +3917,10 @@
         <v>1</v>
       </c>
       <c r="BG51">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BH51">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
@@ -3907,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>0.92307692307692313</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -3970,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="BH52">
-        <v>0.91666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="BK52">
         <v>1</v>
@@ -3981,13 +4005,13 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F53">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T53">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -3996,10 +4020,10 @@
         <v>1</v>
       </c>
       <c r="AJ53">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="AO53">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BA53">
         <v>1</v>
@@ -4197,6 +4221,9 @@
       <c r="Q58">
         <v>1</v>
       </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
       <c r="S58">
         <v>1</v>
       </c>
@@ -4251,16 +4278,16 @@
         <v>0.8</v>
       </c>
       <c r="L59">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M59">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="W59">
         <v>0.8571428571428571</v>
-      </c>
-      <c r="M59">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="W59">
-        <v>0.875</v>
       </c>
       <c r="Z59">
         <v>1</v>
@@ -4269,7 +4296,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AC59">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AG59">
         <v>1</v>
@@ -4281,39 +4308,42 @@
         <v>1</v>
       </c>
       <c r="AV59">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AX59">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AY59">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BG59">
         <v>1</v>
       </c>
       <c r="BH59">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M60">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N60">
         <v>0.8</v>
       </c>
       <c r="P60">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R60">
         <v>0.8</v>
@@ -4325,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="W60">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="X60">
         <v>0.8</v>
@@ -4352,28 +4382,28 @@
         <v>0.8</v>
       </c>
       <c r="AR60">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AU60">
         <v>1</v>
       </c>
       <c r="AV60">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AX60">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AY60">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AZ60">
-        <v>0.91666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="BD60">
         <v>0.8</v>
       </c>
       <c r="BG60">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BH60">
         <v>1</v>
@@ -4514,7 +4544,7 @@
         <v>62</v>
       </c>
       <c r="G63">
-        <v>0.92307692307692313</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -4701,6 +4731,12 @@
       </c>
       <c r="F66">
         <v>0.5</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
       </c>
       <c r="J66">
         <v>1</v>

--- a/outputs/house_republicans_committee_votes.xlsx
+++ b/outputs/house_republicans_committee_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/outputs/house_republicans_committee_votes.xlsx
+++ b/outputs/house_republicans_committee_votes.xlsx
@@ -841,9 +841,6 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -851,9 +848,6 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="T3">
         <v>1</v>
       </c>
       <c r="V3">
@@ -916,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>0.77777777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -925,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -934,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -946,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="BA4">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BL4">
         <v>1</v>
@@ -1043,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1052,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -1070,9 +1064,6 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
         <v>1</v>
       </c>
       <c r="BA6">
@@ -1108,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>0.90909090909090906</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V7">
-        <v>0.84615384615384615</v>
+        <v>0.8</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1120,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
       <c r="AL7">
         <v>0.5</v>
@@ -1132,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="AU7">
-        <v>0.90909090909090906</v>
+        <v>0.875</v>
       </c>
       <c r="AZ7">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="BF7">
         <v>1</v>
@@ -1147,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="BK7">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="BN7">
         <v>0</v>
@@ -1275,9 +1266,6 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="J10">
         <v>1</v>
       </c>
@@ -1294,9 +1282,6 @@
         <v>1</v>
       </c>
       <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
         <v>1</v>
       </c>
       <c r="AE10">
@@ -1551,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="BH14">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BJ14">
         <v>0.5</v>
@@ -1710,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="AF17">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
         <v>0.5</v>
@@ -1722,9 +1707,6 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
         <v>1</v>
       </c>
       <c r="AV17">
@@ -1817,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="BH18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BI18">
         <v>0.5</v>
@@ -1880,9 +1862,6 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -1902,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X20">
         <v>1</v>
@@ -1914,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -1923,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -1938,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="BA20">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BL20">
         <v>1</v>
@@ -1949,19 +1928,19 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.77777777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F21">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G21">
-        <v>0.90909090909090906</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -1985,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0.8571428571428571</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AM21">
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.81818181818181823</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AU21">
         <v>1</v>
@@ -2020,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.84615384615384615</v>
+        <v>0.8</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2207,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="BH24">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.25">
@@ -2360,7 +2339,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AF27">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>1</v>
@@ -2539,9 +2518,6 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
       <c r="R30">
         <v>1</v>
       </c>
@@ -2590,43 +2566,43 @@
         <v>30</v>
       </c>
       <c r="D31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0.5</v>
+      </c>
+      <c r="T31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F31">
-        <v>0.6</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="R31">
-        <v>0.5</v>
-      </c>
-      <c r="T31">
-        <v>0.75</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>1</v>
-      </c>
-      <c r="AI31">
-        <v>1</v>
-      </c>
-      <c r="AJ31">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AO31">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -2664,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2673,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2682,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="AA32">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -2697,16 +2673,13 @@
         <v>1</v>
       </c>
       <c r="AN32">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AP32">
         <v>1</v>
       </c>
       <c r="AQ32">
         <v>1</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -2862,7 +2835,7 @@
         <v>34</v>
       </c>
       <c r="G35">
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2933,10 +2906,10 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0.5</v>
@@ -2951,28 +2924,28 @@
         <v>0.5</v>
       </c>
       <c r="T36">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>0.8571428571428571</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y36">
         <v>0.5</v>
       </c>
       <c r="AE36">
-        <v>0.8571428571428571</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AJ36">
         <v>1</v>
       </c>
       <c r="AO36">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="AV36">
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="37" spans="1:66" x14ac:dyDescent="0.25">
@@ -3184,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="AF40">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AN40">
         <v>1</v>
@@ -3196,9 +3169,6 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
-      </c>
-      <c r="AR40">
         <v>1</v>
       </c>
       <c r="AS40">
@@ -3240,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <v>0.81818181818181823</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -3255,37 +3225,37 @@
         <v>1</v>
       </c>
       <c r="AE41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AS41">
+        <v>1</v>
+      </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BA41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BD41">
+        <v>1</v>
+      </c>
+      <c r="BH41">
         <v>0.75</v>
-      </c>
-      <c r="AH41">
-        <v>1</v>
-      </c>
-      <c r="AJ41">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AS41">
-        <v>1</v>
-      </c>
-      <c r="AZ41">
-        <v>1</v>
-      </c>
-      <c r="BA41">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="BD41">
-        <v>1</v>
-      </c>
-      <c r="BH41">
-        <v>0.8</v>
       </c>
       <c r="BI41">
         <v>1</v>
@@ -3440,9 +3410,6 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
       <c r="L44">
         <v>1</v>
       </c>
@@ -3450,9 +3417,6 @@
         <v>1</v>
       </c>
       <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44">
         <v>1</v>
       </c>
       <c r="W44">
@@ -3467,17 +3431,11 @@
       <c r="AC44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
       <c r="AG44">
         <v>1</v>
       </c>
       <c r="AK44">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
       </c>
       <c r="AR44">
         <v>1</v>
@@ -3615,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>0.90909090909090906</v>
+        <v>0.875</v>
       </c>
       <c r="R47">
         <v>0.5</v>
@@ -3931,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -3994,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="BH52">
-        <v>0.90909090909090906</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="BK52">
         <v>1</v>
@@ -4005,25 +3963,25 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F53">
         <v>0.33333333333333331</v>
       </c>
       <c r="T53">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AJ53">
         <v>0.66666666666666663</v>
       </c>
-      <c r="U53">
-        <v>1</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AJ53">
-        <v>0.8</v>
-      </c>
       <c r="AO53">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BA53">
         <v>1</v>
@@ -4152,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="BH56">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.25">
@@ -4340,13 +4298,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N60">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="P60">
         <v>0.5</v>
       </c>
       <c r="R60">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -4358,7 +4316,7 @@
         <v>0.5</v>
       </c>
       <c r="X60">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z60">
         <v>1</v>
@@ -4379,7 +4337,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AO60">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR60">
         <v>0.33333333333333331</v>
@@ -4397,10 +4355,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="AZ60">
-        <v>0.90909090909090906</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="BD60">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BG60">
         <v>0.66666666666666663</v>
@@ -4544,7 +4502,7 @@
         <v>62</v>
       </c>
       <c r="G63">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="K63">
         <v>1</v>
